--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.95</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.008823529411765</v>
+        <v>2.006191950464396</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.1</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.664705882352941</v>
+        <v>0.7120743034055728</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4</v>
+        <v>-0.4210526315789473</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -554,123 +554,123 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.6377708978328174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.3</v>
+        <v>-0.9473684210526315</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.882352941176471</v>
+        <v>-1.529411764705882</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5823529411764705</v>
+        <v>0.5820433436532507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-1.315789473684211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.529411764705882</v>
+        <v>-1.882352941176471</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5294117647058822</v>
+        <v>0.5665634674922599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>housekeeper</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>házvezető</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.25</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>家政员</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.764705882352941</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5147058823529411</v>
+        <v>0.5541795665634675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>housekeeper</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>házvezető</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.7</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>家政员</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.235294117647059</v>
+        <v>-1.764705882352941</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4647058823529411</v>
+        <v>0.5015479876160991</v>
       </c>
     </row>
     <row r="9">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.65</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -699,181 +699,181 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4088235294117647</v>
+        <v>0.4272445820433437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>nővér</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.05</v>
+        <v>2.263157894736842</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.352941176470588</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3029411764705883</v>
+        <v>0.3219814241486068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>beautician</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>kozmetikus</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>美容师</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.117647058823529</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2823529411764705</v>
+        <v>0.2755417956656347</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>beautician</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kozmetikus</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.15</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>美容师</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.882352941176471</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2676470588235293</v>
+        <v>0.2507739938080495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.2</v>
+        <v>-1.105263157894737</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.941176470588235</v>
+        <v>-1.352941176470588</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2588235294117649</v>
+        <v>0.2476780185758514</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.75</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>-1.588235294117647</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.25</v>
+        <v>0.219814241486068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.35</v>
+        <v>-0.7894736842105263</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.588235294117647</v>
+        <v>-1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2382352941176469</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5</v>
+        <v>-0.5263157894736842</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -902,268 +902,268 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.1795665634674923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6</v>
+        <v>-1.894736842105263</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.7647058823529411</v>
+        <v>-2.058823529411764</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1647058823529411</v>
+        <v>0.1640866873065014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.9</v>
+        <v>-0.2105263157894737</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-2.058823529411764</v>
+        <v>-0.3529411764705883</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1588235294117646</v>
+        <v>0.1424148606811146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.35</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.470588235294118</v>
+        <v>-0.7647058823529411</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1205882352941177</v>
+        <v>0.1331269349845201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.25</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-1.470588235294118</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1029411764705883</v>
+        <v>0.1021671826625388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.65</v>
+        <v>-0.7368421052631579</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5882352941176471</v>
+        <v>-0.8235294117647058</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06176470588235294</v>
+        <v>0.08668730650154799</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1.2</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.235294117647059</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03529411764705892</v>
+        <v>0.04334365325077394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.8</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.8235294117647058</v>
+        <v>-1.235294117647059</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0235294117647058</v>
+        <v>-0.02786377708978316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>caretaker</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.75</v>
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1.705882352941176</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04411764705882359</v>
+        <v>-0.05882352941176472</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>-1.789473684210526</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.058823529411765</v>
+        <v>-1.705882352941176</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.05882352941176472</v>
+        <v>-0.08359133126934992</v>
       </c>
     </row>
     <row r="26">
@@ -1178,7 +1178,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.2</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.09411764705882364</v>
+        <v>-0.08359133126934992</v>
       </c>
     </row>
     <row r="27">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1176470588235294</v>
+        <v>-0.1702786377708979</v>
       </c>
     </row>
     <row r="28">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-2.2</v>
+        <v>-2.210526315789474</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1250,123 +1250,123 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2000000000000002</v>
+        <v>-0.2105263157894739</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.85</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2029411764705882</v>
+        <v>-0.2321981424148608</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.45</v>
+        <v>-0.8947368421052632</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7058823529411765</v>
+        <v>-0.6470588235294118</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2558823529411765</v>
+        <v>-0.2476780185758514</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.25</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公关</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5882352941176471</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3382352941176471</v>
+        <v>-0.3467492260061921</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.95</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>公关</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3441176470588236</v>
+        <v>-0.3777089783281734</v>
       </c>
     </row>
     <row r="33">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.8</v>
+        <v>-0.7894736842105263</v>
       </c>
     </row>
     <row r="35">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.888235294117647</v>
+        <v>-0.9040247678018575</v>
       </c>
     </row>
     <row r="36">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.05</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.067647058823529</v>
+        <v>-1.065015479876161</v>
       </c>
     </row>
     <row r="37">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.4</v>
+        <v>-0.3157894736842105</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.28235294117647</v>
+        <v>-1.198142414860681</v>
       </c>
     </row>
     <row r="38">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.25</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.661764705882353</v>
+        <v>-1.674922600619195</v>
       </c>
     </row>
     <row r="39">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.95</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.4</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.8</v>
+        <v>-0.7894736842105263</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.65</v>
+        <v>-1.631578947368421</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.3</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.006191950464396</v>
+        <v>2.058823529411764</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.052631578947368</v>
+        <v>-1.1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7120743034055728</v>
+        <v>0.664705882352941</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4210526315789473</v>
+        <v>-0.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6377708978328174</v>
+        <v>0.6588235294117647</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.9473684210526315</v>
+        <v>-0.9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -583,65 +583,65 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5820433436532507</v>
+        <v>0.6294117647058822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>housekeeper</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>házvezető</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.315789473684211</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>家政员</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.882352941176471</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5665634674922599</v>
+        <v>0.5647058823529412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>housekeeper</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>házvezető</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.789473684210526</v>
+        <v>-1.35</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>家政员</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.235294117647059</v>
+        <v>-1.882352941176471</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5541795665634675</v>
+        <v>0.5323529411764705</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.263157894736842</v>
+        <v>-1.25</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5015479876160991</v>
+        <v>0.5147058823529411</v>
       </c>
     </row>
     <row r="9">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -699,94 +699,94 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4272445820433437</v>
+        <v>0.3588235294117648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>beautician</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>kozmetikus</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.263157894736842</v>
+        <v>2.2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>美容师</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.941176470588235</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3219814241486068</v>
+        <v>0.3176470588235296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>beautician</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kozmetikus</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.157894736842105</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>美容师</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.882352941176471</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2755417956656347</v>
+        <v>0.2823529411764705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>nővér</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.368421052631579</v>
+        <v>2.2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.117647058823529</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507739938080495</v>
+        <v>0.2588235294117649</v>
       </c>
     </row>
     <row r="13">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.105263157894737</v>
+        <v>-1.15</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2476780185758514</v>
+        <v>0.2029411764705884</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.368421052631579</v>
+        <v>-1.4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -844,36 +844,36 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.219814241486068</v>
+        <v>0.1882352941176471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.7894736842105263</v>
+        <v>-1.9</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-2.058823529411764</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1588235294117646</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5263157894736842</v>
+        <v>-0.55</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -902,65 +902,65 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1795665634674923</v>
+        <v>0.1558823529411765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.894736842105263</v>
+        <v>-0.85</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.058823529411764</v>
+        <v>-1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1640866873065014</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.2105263157894737</v>
+        <v>-1.35</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-1.470588235294118</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1424148606811146</v>
+        <v>0.1205882352941177</v>
       </c>
     </row>
     <row r="19">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.65</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -989,210 +989,210 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1331269349845201</v>
+        <v>0.1147058823529411</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.368421052631579</v>
+        <v>-0.25</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.470588235294118</v>
+        <v>-0.3529411764705883</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1021671826625388</v>
+        <v>0.1029411764705883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7368421052631579</v>
+        <v>0.65</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.8235294117647058</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08668730650154799</v>
+        <v>0.06176470588235294</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>-0.8</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5882352941176471</v>
+        <v>-0.8235294117647058</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04334365325077394</v>
+        <v>0.0235294117647058</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>caretaker</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-1.263157894736842</v>
+        <v>1.05</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.235294117647059</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02786377708978316</v>
+        <v>-0.008823529411764675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.058823529411765</v>
+        <v>-1.235294117647059</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.05882352941176472</v>
+        <v>-0.01470588235294112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.789473684210526</v>
+        <v>1.25</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.705882352941176</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08359133126934992</v>
+        <v>-0.04411764705882359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.210526315789474</v>
+        <v>-1.8</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.294117647058824</v>
+        <v>-1.705882352941176</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.08359133126934992</v>
+        <v>-0.09411764705882364</v>
       </c>
     </row>
     <row r="27">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1702786377708979</v>
+        <v>-0.1176470588235294</v>
       </c>
     </row>
     <row r="28">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-2.210526315789474</v>
+        <v>-2.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2105263157894739</v>
+        <v>-0.2000000000000002</v>
       </c>
     </row>
     <row r="29">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2321981424148608</v>
+        <v>-0.2058823529411765</v>
       </c>
     </row>
     <row r="30">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.8947368421052632</v>
+        <v>-0.9</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1308,65 +1308,65 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2476780185758514</v>
+        <v>-0.2529411764705882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>公关</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3467492260061921</v>
+        <v>-0.2882352941176471</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.95</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公关</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5882352941176471</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3777089783281734</v>
+        <v>-0.3441176470588236</v>
       </c>
     </row>
     <row r="33">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.5294117647058822</v>
+        <v>-0.4794117647058822</v>
       </c>
     </row>
     <row r="34">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.7894736842105263</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="35">
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.9040247678018575</v>
+        <v>-0.9382352941176469</v>
       </c>
     </row>
     <row r="36">
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.065015479876161</v>
+        <v>-1.117647058823529</v>
       </c>
     </row>
     <row r="37">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.3157894736842105</v>
+        <v>-0.45</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.198142414860681</v>
+        <v>-1.332352941176471</v>
       </c>
     </row>
     <row r="38">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.2631578947368421</v>
+        <v>-0.3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.674922600619195</v>
+        <v>-1.711764705882353</v>
       </c>
     </row>
     <row r="39">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.45</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.368421052631579</v>
+        <v>-1.4</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.7894736842105263</v>
+        <v>-0.8</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.631578947368421</v>
+        <v>-1.65</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -1401,7 +1401,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ticketseller</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1714,16 +1714,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -1735,16 +1735,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>waiter*</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>hu_mean</t>
+          <t>mean_hu</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>zh_mean</t>
+          <t>mean_zh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,1177 +490,1217 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.058823529411765</v>
+        <v>-0.75</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058823529411764</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>housekeeper</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>házvezető</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.1</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>家政员</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.664705882352941</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1.058823529411765</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6588235294117647</v>
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>beautician</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>kozmetikus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>美容师</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.529411764705882</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6294117647058822</v>
+        <v>0.7416666666666669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>housekeeper</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>házvezető</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>家政员</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.235294117647059</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5647058823529412</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>nővér</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.35</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.882352941176471</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5323529411764705</v>
+        <v>0.6166666666666669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.764705882352941</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5147058823529411</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.7</v>
+        <v>0.65</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.058823529411765</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3588235294117648</v>
+        <v>0.4416666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>beautician</t>
+          <t>caregiver</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kozmetikus</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.2</v>
+        <v>1.05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>美容师</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3176470588235296</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.117647058823529</v>
+        <v>-1.5</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2823529411764705</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>HR specialist</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>人事</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.941176470588235</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2588235294117649</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.15</v>
+        <v>1.05</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1.352941176470588</v>
+        <v>0.875</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2029411764705884</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1.588235294117647</v>
+        <v>-1.041666666666667</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1882352941176471</v>
+        <v>0.1416666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.9</v>
+        <v>-0.25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-2.058823529411764</v>
+        <v>-0.375</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1588235294117646</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>orvos</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.55</v>
+        <v>0.95</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.7058823529411765</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1558823529411765</v>
+        <v>0.1166666666666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.85</v>
+        <v>-0.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.15</v>
+        <v>0.05833333333333329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.35</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1.470588235294118</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1205882352941177</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.65</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.7647058823529411</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1147058823529411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.25</v>
+        <v>-0.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.3529411764705883</v>
+        <v>-0.7916666666666666</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1029411764705883</v>
+        <v>-0.008333333333333415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.65</v>
+        <v>-1.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5882352941176471</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06176470588235294</v>
+        <v>-0.1083333333333332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.8235294117647058</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0235294117647058</v>
+        <v>-0.1333333333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.05</v>
+        <v>-0.85</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.058823529411765</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.008823529411764675</v>
+        <v>-0.1416666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.25</v>
+        <v>-0.65</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1.235294117647059</v>
+        <v>-0.5</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.01470588235294112</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.25</v>
+        <v>-1.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.294117647058824</v>
+        <v>-1.125</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.04411764705882359</v>
+        <v>-0.2250000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.8</v>
+        <v>-1.35</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1.705882352941176</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.09411764705882364</v>
+        <v>-0.2666666666666668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>-1.15</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.117647058823529</v>
+        <v>-0.875</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1176470588235294</v>
+        <v>-0.2749999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-2.2</v>
+        <v>-1.4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2</v>
+        <v>-1.125</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2000000000000002</v>
+        <v>-0.2749999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7058823529411765</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2058823529411765</v>
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>orvos</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.9</v>
+        <v>-0.55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.6470588235294118</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2529411764705882</v>
+        <v>-0.3416666666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>-1.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公关</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5882352941176471</v>
+        <v>-0.875</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2882352941176471</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.95</v>
+        <v>-0.8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.294117647058824</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3441176470588236</v>
+        <v>-0.3833333333333334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.05</v>
+        <v>-2.2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.529411764705882</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.4794117647058822</v>
+        <v>-0.4083333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.8</v>
+        <v>-0.4416666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.65</v>
+        <v>-0.45</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.588235294117647</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.9382352941176469</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.117647058823529</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.117647058823529</v>
+        <v>-0.5416666666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.332352941176471</v>
+        <v>-0.5416666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>pilóta</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.3</v>
+        <v>-1.65</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>飞行员</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.411764705882353</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.711764705882353</v>
+        <v>-0.6499999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>(male) nurse</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ápoló</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+        <v>0.65</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>前台</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1.375</v>
+      </c>
       <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.725</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HR specialist</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+        <v>-1.8</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>军人</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-1</v>
+      </c>
       <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>domestic helper</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t>farmer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>földműves</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.4</v>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>保姆</t>
+          <t>农民</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.117647058823529</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.8583333333333333</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>ápoló</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+        <v>0.45</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>护士</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.583333333333333</v>
+      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>-1.133333333333333</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>flight attendant*</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>secretary</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>titkár</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.3</v>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>空服员</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>-1.258333333333333</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1672,18 +1712,18 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kindergarten teacher</t>
+          <t>domestic helper</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>幼师</t>
+          <t>保姆</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1693,19 +1733,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pilot</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pilóta</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+          <t>flight attendant*</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>空服员</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
@@ -1714,19 +1754,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>server</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>felszolgáló</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+          <t>kindergarten teacher</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>幼师</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.583333333333333</v>
+      </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
@@ -1735,16 +1775,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -879,302 +879,302 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>felszolgáló</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.95</v>
+        <v>0.2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>服务员(2)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4</v>
+        <v>0.95</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.4583333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05833333333333329</v>
+        <v>0.1166666666666666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>学生</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.05833333333333329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.7916666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008333333333333415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.9</v>
+        <v>-0.8</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.7916666666666666</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1083333333333332</v>
+        <v>-0.008333333333333415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>-1.9</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3333333333333333</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1333333333333333</v>
+        <v>-0.1083333333333332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.85</v>
+        <v>0.2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1416666666666666</v>
+        <v>-0.1333333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.65</v>
+        <v>-0.85</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.5</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.15</v>
+        <v>-0.1416666666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.35</v>
+        <v>-0.65</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.125</v>
+        <v>-0.5</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2250000000000001</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1182,46 +1182,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1.083333333333333</v>
+        <v>-1.125</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2666666666666668</v>
+        <v>-0.2250000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.15</v>
+        <v>-1.35</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.875</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2749999999999999</v>
+        <v>-0.2666666666666668</v>
       </c>
     </row>
     <row r="28">
@@ -1256,259 +1256,259 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.7</v>
+        <v>-1.15</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.875</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2833333333333333</v>
+        <v>-0.2749999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orvos</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.55</v>
+        <v>-0.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.2083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3416666666666667</v>
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>orvos</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.25</v>
+        <v>-0.55</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.875</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.375</v>
+        <v>-0.3416666666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.8</v>
+        <v>-1.25</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>园丁</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.875</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3833333333333334</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.4083333333333334</v>
+        <v>-0.3833333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.9</v>
+        <v>-2.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.4583333333333333</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.4416666666666667</v>
+        <v>-0.4083333333333334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.45</v>
+        <v>-0.9</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.08333333333333333</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.5333333333333333</v>
+        <v>-0.4416666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1.25</v>
+        <v>-0.45</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5416666666666666</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5416666666666666</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>-0.5416666666666666</v>
@@ -1517,214 +1517,222 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pilóta</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.65</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>飞行员</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.5416666666666666</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>pilóta</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.65</v>
+        <v>-1.65</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>飞行员</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.725</v>
+        <v>-0.6499999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1.8</v>
+        <v>0.65</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.8</v>
+        <v>-0.725</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>农民</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.5416666666666666</v>
+        <v>-1</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.8583333333333333</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>farmer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ápoló</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.45</v>
+        <v>-1.4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>农民</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.583333333333333</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.133333333333333</v>
+        <v>-0.8583333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>ápoló</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9583333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.258333333333333</v>
+        <v>-1.133333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+        <v>-0.3</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>秘书</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>-1.258333333333333</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>domestic helper</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>保姆</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>1.625</v>
-      </c>
+          <t>PR specialist</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PR munkatárs</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="b">
         <v>0</v>
       </c>
@@ -1733,18 +1741,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>flight attendant*</t>
+          <t>domestic helper</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>空服员</t>
+          <t>保姆</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.7083333333333334</v>
+        <v>1.625</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1754,18 +1762,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kindergarten teacher</t>
+          <t>flight attendant*</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>幼师</t>
+          <t>空服员</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.583333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1775,19 +1783,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>server</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>felszolgáló</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+          <t>kindergarten teacher</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>幼师</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.583333333333333</v>
+      </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -879,302 +879,302 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>server</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>felszolgáló</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>服务员(2)</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1166666666666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.95</v>
+        <v>-0.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8333333333333334</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.05833333333333329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>student</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>学生</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.4583333333333333</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05833333333333329</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>会计</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>学生</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.04166666666666666</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>-0.7916666666666666</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-0.008333333333333415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.8</v>
+        <v>-1.9</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.7916666666666666</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.008333333333333415</v>
+        <v>-0.1083333333333332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1.9</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.791666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1083333333333332</v>
+        <v>-0.1333333333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2</v>
+        <v>-0.85</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1333333333333333</v>
+        <v>-0.1416666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.85</v>
+        <v>-0.65</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.7083333333333334</v>
+        <v>-0.5</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1416666666666666</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.65</v>
+        <v>-1.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.5</v>
+        <v>-1.125</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.15</v>
+        <v>-0.2250000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1182,46 +1182,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1.125</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2250000000000001</v>
+        <v>-0.2666666666666668</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.35</v>
+        <v>-1.15</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.875</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2666666666666668</v>
+        <v>-0.2749999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1256,259 +1256,259 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1.15</v>
+        <v>-0.7</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.875</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2749999999999999</v>
+        <v>-0.2833333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>orvos</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.7</v>
+        <v>-0.55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2833333333333333</v>
+        <v>-0.3416666666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>orvos</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.55</v>
+        <v>-1.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.2083333333333333</v>
+        <v>-0.875</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.3416666666666667</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.25</v>
+        <v>-0.8</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.875</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.375</v>
+        <v>-0.3833333333333334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.8</v>
+        <v>-2.2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>园丁</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.3833333333333334</v>
+        <v>-0.4083333333333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-2.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.4083333333333334</v>
+        <v>-0.4416666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.9</v>
+        <v>-0.45</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.4583333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.4416666666666667</v>
+        <v>-0.5333333333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.45</v>
+        <v>-1.25</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.08333333333333333</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5333333333333333</v>
+        <v>-0.5416666666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>-0.5416666666666666</v>
@@ -1517,222 +1517,214 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>pilóta</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>飞行员</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.5416666666666666</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.5416666666666666</v>
+        <v>-0.6499999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pilóta</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-1.65</v>
+        <v>0.65</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>飞行员</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.725</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.65</v>
+        <v>-1.8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.725</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>farmer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>földműves</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.8</v>
+        <v>-1.4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>农民</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-1</v>
+        <v>-0.5416666666666666</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.8</v>
+        <v>-0.8583333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>farmer</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>földműves</t>
+          <t>ápoló</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.4</v>
+        <v>0.45</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>农民</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.5416666666666666</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.8583333333333333</v>
+        <v>-1.133333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ápoló</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.583333333333333</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.133333333333333</v>
+        <v>-1.258333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>秘书</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.9583333333333334</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="G44" t="n">
-        <v>-1.258333333333333</v>
-      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PR specialist</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PR munkatárs</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+          <t>domestic helper</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>保姆</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1.625</v>
+      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
@@ -1741,18 +1733,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>domestic helper</t>
+          <t>flight attendant*</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>保姆</t>
+          <t>空服员</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1762,18 +1754,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>flight attendant*</t>
+          <t>kindergarten teacher</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>空服员</t>
+          <t>幼师</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.7083333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1783,19 +1775,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kindergarten teacher</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>幼师</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1.583333333333333</v>
-      </c>
+          <t>server</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>felszolgáló</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="b">
         <v>0</v>
       </c>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.8</v>
+        <v>1.772727272727273</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.272727272727273</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.4</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9416666666666667</v>
+        <v>0.9962121212121213</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.2</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7416666666666669</v>
+        <v>0.8143939393939397</v>
       </c>
     </row>
     <row r="6">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.7121212121212122</v>
       </c>
     </row>
     <row r="7">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.2</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -641,65 +641,65 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6166666666666669</v>
+        <v>0.6439393939393938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.25</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4734848484848484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.65</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4416666666666667</v>
+        <v>0.4280303030303031</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -728,94 +728,94 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.425</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>HR personnel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>人事</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.3712121212121212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HR specialist</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>-1.227272727272727</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>人事</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5833333333333334</v>
+        <v>-1.5</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.05</v>
+        <v>-0.1818181818181818</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.875</v>
+        <v>-0.375</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.175</v>
+        <v>0.1931818181818182</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.9</v>
+        <v>-0.8636363636363636</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -844,36 +844,36 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.1780303030303031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.25</v>
+        <v>1.045454545454545</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.375</v>
+        <v>0.875</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.125</v>
+        <v>0.1704545454545454</v>
       </c>
     </row>
     <row r="16">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.95</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="17">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4</v>
+        <v>-0.4090909090909091</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05833333333333329</v>
+        <v>0.0492424242424242</v>
       </c>
     </row>
     <row r="18">
@@ -966,146 +966,146 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>-0.7727272727272727</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>-0.7916666666666666</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.01893939393939392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.7916666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.008333333333333415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.9</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.791666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1083333333333332</v>
+        <v>-0.106060606060606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ticket seller</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>-0.8636363636363636</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1333333333333333</v>
+        <v>-0.1553030303030303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.85</v>
+        <v>-1.954545454545455</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.7083333333333334</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1416666666666666</v>
+        <v>-0.1628787878787878</v>
       </c>
     </row>
     <row r="24">
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.65</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.15</v>
+        <v>-0.1818181818181818</v>
       </c>
     </row>
     <row r="25">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-1.35</v>
+        <v>-1.363636363636364</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1163,36 +1163,36 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2250000000000001</v>
+        <v>-0.2386363636363635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-1.35</v>
+        <v>-0.6818181818181818</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2666666666666668</v>
+        <v>-0.2651515151515151</v>
       </c>
     </row>
     <row r="27">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.15</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1221,268 +1221,268 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2749999999999999</v>
+        <v>-0.3068181818181819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-1.4</v>
+        <v>-1.409090909090909</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.125</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2749999999999999</v>
+        <v>-0.3257575757575759</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>orvos</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.7</v>
+        <v>-0.5454545454545454</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.2083333333333333</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2833333333333333</v>
+        <v>-0.337121212121212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>orvos</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.55</v>
+        <v>-1.272727272727273</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.2083333333333333</v>
+        <v>-0.875</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3416666666666667</v>
+        <v>-0.3977272727272727</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.25</v>
+        <v>-1.545454545454545</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.875</v>
+        <v>-1.125</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.375</v>
+        <v>-0.4204545454545454</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.8</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>园丁</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.4583333333333333</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.3833333333333334</v>
+        <v>-0.4507575757575757</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-2.2</v>
+        <v>-1.181818181818182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.791666666666667</v>
+        <v>-0.7083333333333334</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.4083333333333334</v>
+        <v>-0.4734848484848485</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.9</v>
+        <v>-2.272727272727273</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.4583333333333333</v>
+        <v>-1.791666666666667</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.4416666666666667</v>
+        <v>-0.4810606060606062</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.45</v>
+        <v>-0.9090909090909091</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>园丁</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.08333333333333333</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.5333333333333333</v>
+        <v>-0.4924242424242424</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.7083333333333334</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5416666666666666</v>
+        <v>-0.5833333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-0.04545454545454546</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.5416666666666666</v>
+        <v>-0.587121212121212</v>
       </c>
     </row>
     <row r="38">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.65</v>
+        <v>-1.681818181818182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6499999999999999</v>
+        <v>-0.6818181818181819</v>
       </c>
     </row>
     <row r="39">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.65</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.725</v>
+        <v>-0.6931818181818182</v>
       </c>
     </row>
     <row r="40">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1.8</v>
+        <v>-1.863636363636364</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.8</v>
+        <v>-0.8636363636363635</v>
       </c>
     </row>
     <row r="41">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.8583333333333333</v>
+        <v>-0.9583333333333334</v>
       </c>
     </row>
     <row r="42">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.45</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.133333333333333</v>
+        <v>-1.174242424242424</v>
       </c>
     </row>
     <row r="43">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.3</v>
+        <v>-0.2272727272727273</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.258333333333333</v>
+        <v>-1.185606060606061</v>
       </c>
     </row>
     <row r="44">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1712,18 +1712,18 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>domestic helper</t>
+          <t>flight attendant*</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>保姆</t>
+          <t>空服员</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.625</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1733,18 +1733,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>flight attendant*</t>
+          <t>kindergarten teacher</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>空服员</t>
+          <t>幼师</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.7083333333333334</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1754,18 +1754,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>kindergarten teacher</t>
+          <t>nanny</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>幼师</t>
+          <t>保姆</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.583333333333333</v>
+        <v>1.625</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>

--- a/occupations_unified.xlsx
+++ b/occupations_unified.xlsx
@@ -1459,59 +1459,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.5416666666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.04545454545454546</v>
+        <v>-0.5</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.587121212121212</v>
+        <v>-0.5833333333333334</v>
       </c>
     </row>
     <row r="38">
